--- a/e2e/testCasesCourses.xlsx
+++ b/e2e/testCasesCourses.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t xml:space="preserve">TEST CASES</t>
   </si>
@@ -108,6 +108,7 @@
         <sz val="10"/>
         <rFont val="FandolFang R"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -129,6 +130,7 @@
         <sz val="10"/>
         <rFont val="FandolFang R"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -435,30 +437,273 @@
     <t xml:space="preserve">Response with status code and error according to spec</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Now for page=0, response contains objects, but mustn’t, the page must be started with 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Requirements need to be clarified.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking API call with default limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Execute the API call to Courses_URL without limit parameter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Response contains valid dataset is bounded by </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">default_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking API call with min limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">limit=1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Response contains valid dataset is bounded by </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking API call with max limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">limit=10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Response contains valid dataset is bounded by </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Displayed max number of objects are 2. For the value limit=3 or 4, the result is the same as for page=1 or 2. For the value limit=5…, empty objects in the response. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking API call with invalid limit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">limit=&lt;out of range, null, 0, special char, letter&gt;</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Returns nothing, there is no requirements  for such cases.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2. Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking API call with default limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Execute the API call to Courses_URL without limit parameter</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <t xml:space="preserve">2.3. Ordering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking API call with asc order</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Response contains valid dataset is bounded by </t>
+      <t xml:space="preserve">order=asc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Response contains valid </t>
     </r>
     <r>
       <rPr>
@@ -469,7 +714,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">default_limit</t>
+      <t xml:space="preserve">ascending</t>
     </r>
     <r>
       <rPr>
@@ -479,14 +724,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking API call with limit = 1</t>
+      <t xml:space="preserve"> sorted data</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting is always desc, need to be clarified what must be default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking API call with desc order</t>
   </si>
   <si>
     <r>
@@ -508,7 +756,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">limit=1</t>
+      <t xml:space="preserve">order=desc</t>
     </r>
   </si>
   <si>
@@ -520,7 +768,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Response contains valid dataset is bounded by </t>
+      <t xml:space="preserve">Response contains valid </t>
     </r>
     <r>
       <rPr>
@@ -531,7 +779,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t xml:space="preserve">descending</t>
     </r>
     <r>
       <rPr>
@@ -541,238 +789,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking API call with limit = 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">limit=10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Response contains valid dataset is bounded by </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Displayed max number of objects are 2(for limit=3..10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking API call with invalid limit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">limit=&lt;out of range, null, 0, special char, letter&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3. Ordering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking API call with asc order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">order=asc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Response contains valid </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ascending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve"> sorted data</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sorting is always desc, need to be clarified what must be default value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking API call with desc order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1) Execute the API call to Courses_URL with </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">order=desc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Response contains valid </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">descending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> sorted data</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">TC14</t>
   </si>
   <si>
     <t xml:space="preserve">Checking API call with invalid order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the first page objects always</t>
   </si>
   <si>
     <t xml:space="preserve">TEST REPORT</t>
@@ -822,7 +849,7 @@
     <numFmt numFmtId="173" formatCode="0.00%"/>
     <numFmt numFmtId="174" formatCode="0%"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -911,6 +938,7 @@
       <sz val="10"/>
       <name val="FandolFang R"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -986,6 +1014,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1337,7 +1371,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1770,6 +1804,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1790,7 +1828,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1886,7 +1924,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1898,7 +1936,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1906,11 +1944,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="27" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1926,7 +1964,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2039,13 +2077,13 @@
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -2309,18 +2347,18 @@
   </sheetPr>
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="18.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="39" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="40" width="35.01"/>
   </cols>
@@ -2408,7 +2446,7 @@
       </c>
       <c r="B6" s="61" t="n">
         <f aca="false">COUNTIF(I20:I40,"Pass")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="62" t="s">
         <v>23</v>
@@ -2809,8 +2847,8 @@
       <c r="F29" s="106"/>
       <c r="G29" s="100"/>
       <c r="H29" s="99"/>
-      <c r="I29" s="107" t="s">
-        <v>24</v>
+      <c r="I29" s="102" t="s">
+        <v>22</v>
       </c>
       <c r="J29" s="98" t="s">
         <v>67</v>
@@ -2838,7 +2876,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" s="108" customFormat="true" ht="64.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="31" s="109" customFormat="true" ht="64.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A31" s="96" t="s">
         <v>72</v>
       </c>
@@ -2855,14 +2893,14 @@
       <c r="F31" s="106"/>
       <c r="G31" s="100"/>
       <c r="H31" s="101"/>
-      <c r="I31" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="98" t="s">
+      <c r="I31" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="108" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" s="108" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="32" s="109" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A32" s="95" t="s">
         <v>77</v>
       </c>
@@ -2876,7 +2914,7 @@
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
     </row>
-    <row r="33" s="108" customFormat="true" ht="54" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="33" s="109" customFormat="true" ht="54" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A33" s="96" t="s">
         <v>78</v>
       </c>
@@ -2897,12 +2935,12 @@
         <v>22</v>
       </c>
       <c r="J33" s="98"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-    </row>
-    <row r="34" s="108" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+    </row>
+    <row r="34" s="109" customFormat="true" ht="57.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A34" s="96" t="s">
         <v>82</v>
       </c>
@@ -2912,11 +2950,11 @@
       <c r="C34" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="100"/>
       <c r="H34" s="99"/>
       <c r="I34" s="102" t="s">
@@ -2931,16 +2969,16 @@
       <c r="B35" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
       <c r="I35" s="107" t="s">
         <v>24</v>
       </c>
@@ -2948,14 +2986,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" s="108" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="36" s="109" customFormat="true" ht="58.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A36" s="96" t="s">
         <v>91</v>
       </c>
       <c r="B36" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="112" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="106" t="s">
@@ -2963,17 +3001,17 @@
       </c>
       <c r="E36" s="106"/>
       <c r="F36" s="106"/>
-      <c r="H36" s="113"/>
+      <c r="H36" s="114"/>
       <c r="I36" s="103" t="s">
         <v>51</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" s="108" customFormat="true" ht="16.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" s="109" customFormat="true" ht="16.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A37" s="95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="95"/>
       <c r="C37" s="95"/>
@@ -2985,58 +3023,56 @@
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
-    <row r="38" s="108" customFormat="true" ht="57" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="38" s="109" customFormat="true" ht="57" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A38" s="96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E38" s="106"/>
       <c r="F38" s="106"/>
-      <c r="H38" s="113"/>
+      <c r="H38" s="114"/>
       <c r="I38" s="107" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" s="108" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A39" s="114" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="39" s="109" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A39" s="115" t="s">
+        <v>101</v>
+      </c>
       <c r="B39" s="104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" s="108" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D39" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="97"/>
+    </row>
+    <row r="40" s="109" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A40" s="96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="99" t="s">
         <v>93</v>
@@ -3046,21 +3082,21 @@
       </c>
       <c r="E40" s="106"/>
       <c r="F40" s="106"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="103" t="s">
-        <v>51</v>
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="107" t="s">
+        <v>24</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" s="94" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B41" s="38"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="119"/>
-    </row>
-    <row r="42" s="108" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="I41" s="119"/>
+      <c r="J41" s="120"/>
+    </row>
+    <row r="42" s="109" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B42" s="38"/>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
@@ -3070,17 +3106,17 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" s="108" customFormat="true" ht="22.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="44" s="109" customFormat="true" ht="22.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B44" s="38"/>
       <c r="I44" s="39"/>
       <c r="J44" s="40"/>
     </row>
-    <row r="45" s="108" customFormat="true" ht="96" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="45" s="109" customFormat="true" ht="96" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B45" s="38"/>
       <c r="I45" s="39"/>
       <c r="J45" s="40"/>
     </row>
-    <row r="46" s="108" customFormat="true" ht="96" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="46" s="109" customFormat="true" ht="96" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B46" s="38"/>
       <c r="I46" s="39"/>
       <c r="J46" s="40"/>
@@ -3090,17 +3126,17 @@
       <c r="I47" s="39"/>
       <c r="J47" s="40"/>
     </row>
-    <row r="48" s="108" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="48" s="109" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B48" s="38"/>
       <c r="I48" s="39"/>
       <c r="J48" s="40"/>
     </row>
-    <row r="49" s="108" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="49" s="109" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B49" s="38"/>
       <c r="I49" s="39"/>
       <c r="J49" s="40"/>
     </row>
-    <row r="50" s="108" customFormat="true" ht="81" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="50" s="109" customFormat="true" ht="81" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B50" s="38"/>
       <c r="I50" s="39"/>
       <c r="J50" s="40"/>
@@ -3115,12 +3151,12 @@
       <c r="I52" s="39"/>
       <c r="J52" s="40"/>
     </row>
-    <row r="53" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="53" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B53" s="38"/>
       <c r="I53" s="39"/>
       <c r="J53" s="40"/>
     </row>
-    <row r="54" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="54" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B54" s="38"/>
       <c r="I54" s="39"/>
       <c r="J54" s="40"/>
@@ -3130,12 +3166,12 @@
       <c r="I55" s="39"/>
       <c r="J55" s="40"/>
     </row>
-    <row r="56" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="56" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B56" s="38"/>
       <c r="I56" s="39"/>
       <c r="J56" s="40"/>
     </row>
-    <row r="57" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="57" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B57" s="38"/>
       <c r="I57" s="39"/>
       <c r="J57" s="40"/>
@@ -3145,12 +3181,12 @@
       <c r="I58" s="39"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="59" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B59" s="38"/>
       <c r="I59" s="39"/>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="60" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B60" s="38"/>
       <c r="I60" s="39"/>
       <c r="J60" s="40"/>
@@ -3160,12 +3196,12 @@
       <c r="I61" s="39"/>
       <c r="J61" s="40"/>
     </row>
-    <row r="62" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="62" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B62" s="38"/>
       <c r="I62" s="39"/>
       <c r="J62" s="40"/>
     </row>
-    <row r="63" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="63" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B63" s="38"/>
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
@@ -3175,12 +3211,12 @@
       <c r="I64" s="39"/>
       <c r="J64" s="40"/>
     </row>
-    <row r="65" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="65" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B65" s="38"/>
       <c r="I65" s="39"/>
       <c r="J65" s="40"/>
     </row>
-    <row r="66" s="108" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="66" s="109" customFormat="true" ht="87.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="B66" s="38"/>
       <c r="I66" s="39"/>
       <c r="J66" s="40"/>
@@ -3293,47 +3329,47 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="123"/>
+      <c r="A1" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
+        <v>109</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="124" t="n">
+        <v>110</v>
+      </c>
+      <c r="C4" s="125" t="n">
         <v>44351</v>
       </c>
       <c r="D4" s="11"/>
@@ -3360,124 +3396,124 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="125"/>
-      <c r="B7" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="128" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="127" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="127" t="s">
+      <c r="F7" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="129" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" s="134" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131" t="n">
+      <c r="G7" s="130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" s="135" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="132" t="str">
+      <c r="C8" s="133" t="str">
         <f aca="false">'Export all carrier choices'!B4</f>
         <v>Courses</v>
       </c>
-      <c r="D8" s="133" t="n">
+      <c r="D8" s="134" t="n">
         <f aca="false">'Export all carrier choices'!B6</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="132" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="133" t="n">
         <f aca="false">'Export all carrier choices'!B7</f>
         <v>4</v>
       </c>
-      <c r="F8" s="132" t="n">
+      <c r="F8" s="133" t="n">
         <f aca="false">'Export all carrier choices'!D6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="133" t="n">
+      <c r="G8" s="134" t="n">
         <f aca="false">'Export all carrier choices'!D7</f>
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="140"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="142" t="n">
+      <c r="B10" s="141"/>
+      <c r="C10" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="143" t="n">
         <f aca="false">SUM(D6:D9)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="142" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="143" t="n">
         <f aca="false">SUM(E6:E9)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="142" t="n">
+      <c r="F10" s="143" t="n">
         <f aca="false">SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="143" t="n">
+      <c r="G10" s="144" t="n">
         <f aca="false">SUM(G6:G9)</f>
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
-      <c r="B11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="147" t="n">
+      <c r="E12" s="148" t="n">
         <f aca="false">(D10+E10)*100/G10</f>
-        <v>64.2857142857143</v>
+        <v>78.5714285714286</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="148"/>
+        <v>116</v>
+      </c>
+      <c r="G12" s="149"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="147" t="n">
+      <c r="E13" s="148" t="n">
         <f aca="false">D10*100/G10</f>
-        <v>35.7142857142857</v>
+        <v>50</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="148"/>
+        <v>116</v>
+      </c>
+      <c r="G13" s="149"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
